--- a/data/trans_camb/KIDM_A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_A_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,2</t>
+          <t>0,0; 8,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,72</t>
+          <t>0,0; 10,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,82</t>
+          <t>0,0; 34,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 4,01</t>
+          <t>-8,92; 4,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 10,47</t>
+          <t>-7,36; 10,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -1,43</t>
+          <t>-11,79; -1,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,4</t>
+          <t>-3,84; 2,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,13</t>
+          <t>-2,57; 6,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 14,99</t>
+          <t>-2,33; 15,44</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 6,2</t>
+          <t>0,0; 6,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,9</t>
+          <t>-3,29; 0,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,75</t>
+          <t>-3,1; 0,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,05</t>
+          <t>-1,35; 4,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,14</t>
+          <t>-2,59; 1,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,75</t>
+          <t>-2,61; 1,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,14</t>
+          <t>0,37; 4,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,49</t>
+          <t>-2,2; 0,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,87</t>
+          <t>-2,42; 0,52</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 720,87</t>
+          <t>-13,22; 586,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 202,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-97,29; 156,17</t>
+          <t>-100,0; 216,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,78; 625,54</t>
+          <t>-52,68; 649,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,12; 180,9</t>
+          <t>-87,31; 175,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 352,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 378,37</t>
+          <t>4,91; 396,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-79,82; 65,53</t>
+          <t>-80,45; 53,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,86; 97,16</t>
+          <t>-84,12; 65,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 0,0</t>
+          <t>-10,01; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 7,4</t>
+          <t>-5,09; 6,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 0,0</t>
+          <t>-9,99; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 8,8</t>
+          <t>-1,4; 9,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,87</t>
+          <t>-5,34; 1,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,78</t>
+          <t>-2,72; 4,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 2,88</t>
+          <t>-3,19; 3,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,6</t>
+          <t>-2,9; 4,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 0,64</t>
+          <t>-4,92; 0,63</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-84,99; —</t>
+          <t>-78,77; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,02</t>
+          <t>-0,24; 3,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,81</t>
+          <t>-1,9; 1,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,37</t>
+          <t>-2,24; 1,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,44</t>
+          <t>-1,27; 3,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,17</t>
+          <t>-2,54; 1,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,07</t>
+          <t>-2,84; 1,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,02</t>
+          <t>-0,05; 2,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,01</t>
+          <t>-1,51; 1,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,61</t>
+          <t>-1,96; 0,68</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 404,21</t>
+          <t>-17,77; 430,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,02; 181,8</t>
+          <t>-71,13; 205,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-84,54; 134,46</t>
+          <t>-85,18; 226,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 249,09</t>
+          <t>-43,26; 241,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-76,26; 116,03</t>
+          <t>-74,99; 99,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-88,43; 125,18</t>
+          <t>-87,61; 113,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 219,62</t>
+          <t>-1,95; 220,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 89,51</t>
+          <t>-58,28; 91,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 53,77</t>
+          <t>-73,69; 56,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/KIDM_A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_A_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-1,64</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-4,42</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>1,38</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>1,95</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,58</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,64</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>3,8</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,95</t>
+          <t>-8,84; 2,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,23</t>
+          <t>-6,32; 11,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,45</t>
+          <t>-11,86; -1,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 4,04</t>
+          <t>0,0; 6,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 10,36</t>
+          <t>0,0; 10,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -1,44</t>
+          <t>0,0; 32,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,82</t>
+          <t>-3,88; 2,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,01</t>
+          <t>-2,97; 6,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 15,44</t>
+          <t>-2,23; 19,22</t>
         </is>
       </c>
     </row>
@@ -738,34 +738,34 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-37,07%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-37,07%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,61%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>-7,08%</t>
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>156,84%</t>
+          <t>168,1%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,05</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-1,15</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,05</t>
+          <t>-1,25; 4,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,78</t>
+          <t>-2,53; 1,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,91</t>
+          <t>-2,68; 1,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,08</t>
+          <t>0,3; 6,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,24</t>
+          <t>-3,43; 0,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,87</t>
+          <t>-3,06; 0,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,27</t>
+          <t>0,41; 4,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,41</t>
+          <t>-2,36; 0,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,52</t>
+          <t>-2,27; 0,69</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>66,88%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-30,31%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-30,62%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>154,05%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-58,09%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-53,67%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>66,88%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-30,31%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,7%</t>
+          <t>-55,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-42,02%</t>
+          <t>-44,77%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 586,56</t>
+          <t>-57,86; 472,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,27; 247,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 216,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 649,81</t>
+          <t>-5,87; 663,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-87,31; 175,19</t>
+          <t>-100,0; 169,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 352,35</t>
+          <t>-100,0; 178,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 396,33</t>
+          <t>7,48; 382,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,45; 53,59</t>
+          <t>-81,1; 54,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,12; 65,64</t>
+          <t>-82,1; 94,98</t>
         </is>
       </c>
     </row>
@@ -1064,34 +1064,34 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-3,01</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>1,12</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>-3,01</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
           <t>-0,05</t>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-1,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 0,0</t>
+          <t>-2,66; 8,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 6,51</t>
+          <t>-5,43; 1,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 0,0</t>
+          <t>-2,76; 5,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 9,2</t>
+          <t>-9,33; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 1,86</t>
+          <t>-5,41; 6,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,77</t>
+          <t>-9,48; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,37</t>
+          <t>-3,59; 3,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,04</t>
+          <t>-3,09; 3,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 0,63</t>
+          <t>-5,25; 0,64</t>
         </is>
       </c>
     </row>
@@ -1170,34 +1170,34 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>195,15%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-31,48%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>37,35%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>195,15%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-31,48%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,81%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
           <t>-2,39%</t>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-69,9%</t>
+          <t>-68,53%</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-78,77; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,78</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,16</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,99</t>
+          <t>-1,09; 3,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,76</t>
+          <t>-2,38; 1,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,44</t>
+          <t>-3,01; 1,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,07</t>
+          <t>-0,13; 4,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,0</t>
+          <t>-1,9; 1,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,08</t>
+          <t>-2,4; 1,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,87</t>
+          <t>0,03; 3,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,05</t>
+          <t>-1,51; 0,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,68</t>
+          <t>-2,0; 0,49</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>48,82%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-27,49%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-41,63%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>95,51%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-8,77%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-27,9%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>48,82%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-27,49%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,82%</t>
+          <t>-29,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-33,96%</t>
+          <t>-35,87%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 430,5</t>
+          <t>-36,98; 264,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,13; 205,21</t>
+          <t>-77,52; 113,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-85,18; 226,53</t>
+          <t>-90,22; 93,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,26; 241,09</t>
+          <t>-17,51; 420,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-74,99; 99,9</t>
+          <t>-70,92; 220,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,61; 113,47</t>
+          <t>-86,42; 183,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 220,57</t>
+          <t>-4,07; 215,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,28; 91,02</t>
+          <t>-59,17; 83,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-73,69; 56,56</t>
+          <t>-75,45; 39,03</t>
         </is>
       </c>
     </row>
